--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1115.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1115.xlsx
@@ -351,10 +351,10 @@
         <v>1.056026002820278</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>1.743154834705793</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1115.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1115.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.056026002820278</v>
+        <v>1.171588182449341</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.383412837982178</v>
       </c>
       <c r="C1">
         <v>15</v>
       </c>
       <c r="D1">
-        <v>1.743154834705793</v>
+        <v>2.374018430709839</v>
       </c>
       <c r="E1">
-        <v>1.21137350332146</v>
+        <v>1.210644483566284</v>
       </c>
     </row>
   </sheetData>
